--- a/Excel_luban/Datas/__beans__.xlsx
+++ b/Excel_luban/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -76,7 +76,7 @@
     <t>item.ItemExchange</t>
   </si>
   <si>
-    <t>,</t>
+    <t>:</t>
   </si>
   <si>
     <t>id</t>
@@ -182,37 +182,66 @@
   </si>
   <si>
     <t>高度</t>
+  </si>
+  <si>
+    <t>ItemProp</t>
+  </si>
+  <si>
+    <t>导表的道具数量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +249,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -228,14 +257,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +272,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +280,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +288,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +296,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -275,14 +304,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -290,7 +319,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -298,7 +327,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -306,14 +335,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -321,38 +350,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,203 +702,233 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1132,23 +1197,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="20.6285714285714" customWidth="1"/>
-    <col min="5" max="6" width="12.247619047619" customWidth="1"/>
+    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="13.5047619047619" customWidth="1"/>
-    <col min="12" max="12" width="10.3809523809524" customWidth="1"/>
+    <col min="10" max="11" width="13.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1160,7 +1226,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1175,16 +1241,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -1210,7 +1276,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
@@ -1226,37 +1292,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" spans="2:13">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="F4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="10:13">
-      <c r="J5" s="2" t="s">
+    <row r="5" s="1" customFormat="1" spans="5:13">
+      <c r="E5" s="8"/>
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
@@ -1305,136 +1372,171 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" t="s">
+    <row r="10" s="2" customFormat="1" spans="2:13">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10" s="10"/>
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="10:13">
-      <c r="J11" t="s">
+    <row r="11" s="2" customFormat="1" spans="5:13">
+      <c r="E11" s="10"/>
+      <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="10:13">
-      <c r="J12" t="s">
+    <row r="12" s="2" customFormat="1" spans="5:13">
+      <c r="E12" s="10"/>
+      <c r="J12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:13">
+      <c r="B17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="5:14">
+      <c r="E18" s="10"/>
+      <c r="J18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Excel_luban/Datas/__beans__.xlsx
+++ b/Excel_luban/Datas/__beans__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="26835" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -188,12 +201,45 @@
   </si>
   <si>
     <t>导表的道具数量</t>
+  </si>
+  <si>
+    <t>Pos2Int</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>位置x值</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>位置y值</t>
+  </si>
+  <si>
+    <t>Pos3Int</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>位置z值</t>
+  </si>
+  <si>
+    <t>Pos2</t>
+  </si>
+  <si>
+    <t>Pos3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -842,24 +888,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +913,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="22" applyAlignment="1">
@@ -1197,16 +1243,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="11" width="13.5083333333333" customWidth="1"/>
@@ -1214,7 +1260,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1226,7 +1272,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1250,7 +1296,7 @@
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -1276,7 +1322,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
@@ -1293,37 +1339,37 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:13">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="F4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="5:13">
-      <c r="E5" s="8"/>
-      <c r="J5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
@@ -1376,7 +1422,7 @@
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
       <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1437,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="5:13">
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
       <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1449,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="5:13">
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
       <c r="J12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1415,128 +1461,292 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="2:13">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="J17" s="13" t="s">
+      <c r="F17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="5:14">
-      <c r="E18" s="10"/>
-      <c r="J18" s="6" t="s">
+      <c r="E18" s="8"/>
+      <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13">
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="2:13">
+      <c r="B21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="5:13">
+      <c r="E22" s="13"/>
+      <c r="J22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="5:13">
+      <c r="E23" s="13"/>
+      <c r="J23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13">
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
